--- a/biology/Botanique/Albizia_adianthifolia/Albizia_adianthifolia.xlsx
+++ b/biology/Botanique/Albizia_adianthifolia/Albizia_adianthifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albizia adianthifolia est une espèce d'arbuste tropical. Elle appartient à la famille des Mimosaceae selon la classification classique, ou à celle des Fabaceae, sous-famille des Mimosoideae selon la classification phylogénétique.
 On la trouve en Afrique : Kenya, Rwanda, Gambie, Zimbabwe etc.
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mimosa adianthifolia Schumach.
 Zygia fastigiata E.Mey.
@@ -545,7 +559,9 @@
           <t>Quelques caractéristiques botaniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de la forêt et de la périphérie de celle-ci, pouvant atteindre plusieurs mètres de hauteur ; tronc droit, cylindrique se terminant par une cime arrondie ; écorce finement rugueuse, lenticelle, de couleur brun clair. Feuilles alternes, pétiolées et biparipennées. Folioles sessiles, rhombiques, légèrement falciformes (asymétriques). Fleurs réunies en capitules solitaires ou groupées en ombelles, de couleur blanc verdâtre, avec le tube séminal parfois rougeâtre. Fruits, gousses plantes, pendantes à nervation nettement et densément réticulées, arrondies au sommet, grisâtres et déhiscentes à maturité.
 </t>
